--- a/Jogos_do_Dia/2023-09-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI65"/>
+  <dimension ref="A1:AI67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="H2" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
         <v>1.02</v>
@@ -663,10 +663,10 @@
         <v>3.75</v>
       </c>
       <c r="N2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O2" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="H3" t="n">
-        <v>5.15</v>
+        <v>4.93</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="J3" t="n">
         <v>1.02</v>
@@ -778,10 +778,10 @@
         <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="O3" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="P3" t="n">
         <v>1.2</v>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -893,10 +893,10 @@
         <v>3.2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="O4" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="P4" t="n">
         <v>1.42</v>
@@ -944,7 +944,7 @@
         <v>1.78</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF4" t="n">
         <v>1.62</v>
@@ -956,7 +956,7 @@
         <v>2.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5.2</v>
+        <v>4.93</v>
       </c>
       <c r="J5" t="n">
         <v>1.05</v>
@@ -1008,10 +1008,10 @@
         <v>3.2</v>
       </c>
       <c r="N5" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="P5" t="n">
         <v>1.4</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H6" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="I6" t="n">
-        <v>8.1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -1123,10 +1123,10 @@
         <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="O6" t="n">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="P6" t="n">
         <v>1.22</v>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H7" t="n">
-        <v>5.65</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>10.4</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
         <v>1.02</v>
@@ -1238,10 +1238,10 @@
         <v>4.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="O7" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="P7" t="n">
         <v>1.24</v>
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
         <v>1.02</v>
@@ -1353,10 +1353,10 @@
         <v>4.2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="P8" t="n">
         <v>1.32</v>
@@ -1447,13 +1447,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H9" t="n">
-        <v>6.15</v>
+        <v>6.5</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -1468,10 +1468,10 @@
         <v>5.8</v>
       </c>
       <c r="N9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="O9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
         <v>1.2</v>
@@ -1562,13 +1562,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>4.29</v>
       </c>
       <c r="I10" t="n">
-        <v>5.35</v>
+        <v>6.9</v>
       </c>
       <c r="J10" t="n">
         <v>1.05</v>
@@ -1583,10 +1583,10 @@
         <v>3.6</v>
       </c>
       <c r="N10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.92</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.64</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1668,100 +1668,100 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>KTP</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M11" t="n">
-        <v>3.32</v>
+        <v>3.48</v>
       </c>
       <c r="N11" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.88</v>
+        <v>2.99</v>
       </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="S11" t="n">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="T11" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="U11" t="n">
         <v>1.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="W11" t="n">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="12">
@@ -1783,100 +1783,100 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>KTP</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.99</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K12" t="n">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
-        <v>3.48</v>
+        <v>3.32</v>
       </c>
       <c r="N12" t="n">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="O12" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="P12" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="R12" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="T12" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="U12" t="n">
         <v>1.3</v>
       </c>
       <c r="V12" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="X12" t="n">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="AC12" t="n">
         <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="13">
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.21</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.93</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
         <v>1.06</v>
@@ -1928,10 +1928,10 @@
         <v>2.8</v>
       </c>
       <c r="N13" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="P13" t="n">
         <v>1.48</v>
@@ -1979,19 +1979,19 @@
         <v>2.29</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF13" t="n">
         <v>1.83</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="14">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H14" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>1.05</v>
@@ -2043,10 +2043,10 @@
         <v>3.75</v>
       </c>
       <c r="N14" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
         <v>1.33</v>
@@ -2085,28 +2085,28 @@
         <v>3.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AH14" t="n">
         <v>1.95</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="15">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.73</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.06</v>
@@ -2158,10 +2158,10 @@
         <v>3.3</v>
       </c>
       <c r="N15" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="O15" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="H16" t="n">
-        <v>4.15</v>
+        <v>3.56</v>
       </c>
       <c r="I16" t="n">
-        <v>5.62</v>
+        <v>4.88</v>
       </c>
       <c r="J16" t="n">
         <v>1.01</v>
@@ -2273,10 +2273,10 @@
         <v>3.4</v>
       </c>
       <c r="N16" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P16" t="n">
         <v>1.38</v>
@@ -2315,28 +2315,28 @@
         <v>2.66</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="17">
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.05</v>
+        <v>3.09</v>
       </c>
       <c r="I17" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="J17" t="n">
         <v>1.04</v>
@@ -2545,28 +2545,28 @@
         <v>2.97</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="19">
@@ -2588,76 +2588,76 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dornbirn</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>Horn</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.39</v>
+        <v>1.87</v>
       </c>
       <c r="H19" t="n">
-        <v>3.45</v>
+        <v>4.01</v>
       </c>
       <c r="I19" t="n">
-        <v>2.54</v>
+        <v>3.52</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>1.59</v>
       </c>
-      <c r="O19" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.24</v>
-      </c>
       <c r="Z19" t="n">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.31</v>
+        <v>3.02</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -2703,100 +2703,100 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lafnitz</t>
+          <t>Dornbirn</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Horn</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>2.47</v>
       </c>
       <c r="H20" t="n">
-        <v>3.55</v>
+        <v>3.39</v>
       </c>
       <c r="I20" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="O20" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.59</v>
+        <v>1.24</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AA20" t="n">
-        <v>3.02</v>
+        <v>2.31</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21">
@@ -2818,76 +2818,76 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Liefering</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Admira</t>
+          <t>SV Stripfing Weiden</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.45</v>
+        <v>3.72</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="N21" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="O21" t="n">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W21" t="n">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="X21" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.65</v>
+        <v>1.16</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.98</v>
+        <v>2.65</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
@@ -2933,73 +2933,73 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>St. Pölten</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>First Vienna</t>
+          <t>Admira</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.58</v>
+        <v>2.05</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N22" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="O22" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="X22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
       <c r="AA22" t="n">
         <v>2.98</v>
@@ -3048,100 +3048,100 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Liefering</t>
+          <t>St. Pölten</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SV Stripfing Weiden</t>
+          <t>First Vienna</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.94</v>
+        <v>1.66</v>
       </c>
       <c r="H23" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="O23" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="W23" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="AA23" t="n">
-        <v>2.65</v>
+        <v>2.98</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="24">
@@ -3163,46 +3163,46 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Nürnberg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Wehen Wiesbaden</t>
+          <t>Greuther Fürth</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H24" t="n">
-        <v>4.05</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>5.05</v>
+        <v>2.6</v>
       </c>
       <c r="J24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="M24" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N24" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="O24" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="P24" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R24" t="n">
         <v>1.62</v>
@@ -3211,37 +3211,37 @@
         <v>2.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="U24" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="V24" t="n">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="W24" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AA24" t="n">
-        <v>3.12</v>
+        <v>2.64</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>2.89</v>
+        <v>2.1</v>
       </c>
       <c r="AE24" t="n">
         <v>1.2</v>
@@ -3278,46 +3278,46 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Nürnberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Greuther Fürth</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.46</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="I25" t="n">
-        <v>2.51</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L25" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="M25" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N25" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="O25" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="P25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R25" t="n">
         <v>1.62</v>
@@ -3326,37 +3326,37 @@
         <v>2.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="U25" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="V25" t="n">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.64</v>
+        <v>3.12</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="AC25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.1</v>
+        <v>2.89</v>
       </c>
       <c r="AE25" t="n">
         <v>1.2</v>
@@ -3402,13 +3402,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="I26" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
         <v>1.03</v>
@@ -3423,10 +3423,10 @@
         <v>4.33</v>
       </c>
       <c r="N26" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="O26" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="P26" t="n">
         <v>1.29</v>
@@ -3465,19 +3465,19 @@
         <v>3.01</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AG26" t="n">
         <v>1.28</v>
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="I27" t="n">
-        <v>2.51</v>
+        <v>2.6</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
@@ -3538,10 +3538,10 @@
         <v>3.7</v>
       </c>
       <c r="N27" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="O27" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="P27" t="n">
         <v>1.36</v>
@@ -3632,13 +3632,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>6.05</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
         <v>1.01</v>
@@ -3653,10 +3653,10 @@
         <v>3.3</v>
       </c>
       <c r="N28" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O28" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="P28" t="n">
         <v>1.33</v>
@@ -3747,13 +3747,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.37</v>
+        <v>2.46</v>
       </c>
       <c r="H29" t="n">
         <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>2.61</v>
+        <v>2.37</v>
       </c>
       <c r="J29" t="n">
         <v>1.02</v>
@@ -3768,10 +3768,10 @@
         <v>4.5</v>
       </c>
       <c r="N29" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="O29" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="P29" t="n">
         <v>1.27</v>
@@ -3810,16 +3810,16 @@
         <v>2.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF29" t="n">
         <v>1.27</v>
@@ -3968,76 +3968,76 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.26</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
-        <v>3.55</v>
+        <v>3.73</v>
       </c>
       <c r="I31" t="n">
-        <v>3.13</v>
+        <v>1.89</v>
       </c>
       <c r="J31" t="n">
         <v>1.02</v>
       </c>
       <c r="K31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L31" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P31" t="n">
         <v>1.22</v>
       </c>
-      <c r="M31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.29</v>
-      </c>
       <c r="Q31" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="R31" t="n">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="S31" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T31" t="n">
-        <v>1.42</v>
+        <v>1.87</v>
       </c>
       <c r="U31" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
       <c r="W31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.85</v>
+        <v>1.13</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -4113,10 +4113,10 @@
         <v>3.72</v>
       </c>
       <c r="N32" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="O32" t="n">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="P32" t="n">
         <v>1.34</v>
@@ -4207,13 +4207,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="H33" t="n">
-        <v>3.35</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="J33" t="n">
         <v>1.02</v>
@@ -4228,10 +4228,10 @@
         <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O33" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="P33" t="n">
         <v>1.33</v>
@@ -4385,28 +4385,28 @@
         <v>2.14</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="35">
@@ -4428,100 +4428,100 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.75</v>
+        <v>2.26</v>
       </c>
       <c r="H35" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I35" t="n">
-        <v>2.21</v>
+        <v>3.13</v>
       </c>
       <c r="J35" t="n">
         <v>1.02</v>
       </c>
       <c r="K35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L35" t="n">
         <v>1.22</v>
       </c>
       <c r="M35" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N35" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O35" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P35" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="R35" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="S35" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T35" t="n">
-        <v>1.63</v>
+        <v>1.42</v>
       </c>
       <c r="U35" t="n">
         <v>1.22</v>
       </c>
       <c r="V35" t="n">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="W35" t="n">
         <v>3</v>
       </c>
       <c r="X35" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.6</v>
+        <v>2.06</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.23</v>
+        <v>0.85</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.83</v>
+        <v>2.91</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="36">
@@ -4658,76 +4658,76 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MVV</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.11</v>
+        <v>2.75</v>
       </c>
       <c r="H37" t="n">
-        <v>3.57</v>
+        <v>3.65</v>
       </c>
       <c r="I37" t="n">
-        <v>2.98</v>
+        <v>2.21</v>
       </c>
       <c r="J37" t="n">
         <v>1.02</v>
       </c>
       <c r="K37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L37" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N37" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="O37" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="P37" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="R37" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="S37" t="n">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="U37" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="V37" t="n">
-        <v>1.72</v>
+        <v>1.45</v>
       </c>
       <c r="W37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X37" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AA37" t="n">
-        <v>2.62</v>
+        <v>2.83</v>
       </c>
       <c r="AB37" t="n">
         <v>0</v>
@@ -4773,76 +4773,76 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>MVV</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.82</v>
+        <v>2.11</v>
       </c>
       <c r="H38" t="n">
-        <v>3.65</v>
+        <v>3.57</v>
       </c>
       <c r="I38" t="n">
-        <v>3.77</v>
+        <v>2.98</v>
       </c>
       <c r="J38" t="n">
         <v>1.02</v>
       </c>
       <c r="K38" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L38" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="M38" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="O38" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="P38" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="R38" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="S38" t="n">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="T38" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="U38" t="n">
         <v>1.2</v>
       </c>
       <c r="V38" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="W38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.92</v>
+        <v>1.34</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AA38" t="n">
-        <v>3.33</v>
+        <v>2.62</v>
       </c>
       <c r="AB38" t="n">
         <v>0</v>
@@ -4888,28 +4888,28 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.55</v>
+        <v>1.82</v>
       </c>
       <c r="H39" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I39" t="n">
-        <v>2.34</v>
+        <v>3.77</v>
       </c>
       <c r="J39" t="n">
         <v>1.02</v>
       </c>
       <c r="K39" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L39" t="n">
         <v>1.2</v>
@@ -4924,40 +4924,40 @@
         <v>2.2</v>
       </c>
       <c r="P39" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="R39" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S39" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="T39" t="n">
-        <v>1.6</v>
+        <v>1.22</v>
       </c>
       <c r="U39" t="n">
         <v>1.2</v>
       </c>
       <c r="V39" t="n">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="W39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X39" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AA39" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="AB39" t="n">
         <v>0</v>
@@ -5003,100 +5003,100 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>VVV</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="H40" t="n">
-        <v>3.73</v>
+        <v>3.7</v>
       </c>
       <c r="I40" t="n">
-        <v>1.89</v>
+        <v>2.34</v>
       </c>
       <c r="J40" t="n">
         <v>1.02</v>
       </c>
       <c r="K40" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L40" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="M40" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="O40" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="P40" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="R40" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="S40" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="T40" t="n">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="U40" t="n">
         <v>1.2</v>
       </c>
       <c r="V40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2</v>
+      </c>
+      <c r="X40" t="n">
         <v>1.33</v>
       </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>2</v>
-      </c>
       <c r="Y40" t="n">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.13</v>
+        <v>1.48</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.88</v>
+        <v>3.45</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="41">
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="H41" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="I41" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -5148,10 +5148,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="O41" t="n">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -5217,7 +5217,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -5229,110 +5229,110 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Ruch Chorzów</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>2.84</v>
+        <v>3.4</v>
       </c>
       <c r="J42" t="n">
         <v>1.06</v>
       </c>
       <c r="K42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T42" t="n">
         <v>1.25</v>
       </c>
-      <c r="M42" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.33</v>
-      </c>
       <c r="U42" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="V42" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="W42" t="n">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="X42" t="n">
         <v>0.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.67</v>
+        <v>0.95</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.31</v>
+        <v>0.88</v>
       </c>
       <c r="AA42" t="n">
-        <v>2.98</v>
+        <v>1.83</v>
       </c>
       <c r="AB42" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AC42" t="n">
         <v>8</v>
       </c>
       <c r="AD42" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH42" t="n">
         <v>2.2</v>
       </c>
-      <c r="AE42" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>2.15</v>
-      </c>
       <c r="AI42" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Germany Bundesliga</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -5344,104 +5344,104 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Bayern München</t>
+          <t>Dinamo Bucureşti</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>U Craiova 1948</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.43</v>
+        <v>2.6</v>
       </c>
       <c r="H43" t="n">
-        <v>4.85</v>
+        <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>5.35</v>
+        <v>2.7</v>
       </c>
       <c r="J43" t="n">
         <v>1.02</v>
       </c>
       <c r="K43" t="n">
-        <v>36</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L43" t="n">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="M43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC43" t="n">
         <v>7.5</v>
       </c>
-      <c r="N43" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="O43" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="V43" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W43" t="n">
-        <v>3</v>
-      </c>
-      <c r="X43" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AB43" t="n">
+      <c r="AD43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AE43" t="n">
         <v>1.48</v>
       </c>
-      <c r="AC43" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1.19</v>
-      </c>
       <c r="AF43" t="n">
-        <v>1.36</v>
+        <v>1.85</v>
       </c>
       <c r="AG43" t="n">
-        <v>1.63</v>
+        <v>2.44</v>
       </c>
       <c r="AH43" t="n">
-        <v>2.02</v>
+        <v>3.34</v>
       </c>
       <c r="AI43" t="n">
-        <v>2.55</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="44">
@@ -5472,37 +5472,37 @@
         </is>
       </c>
       <c r="G44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" t="n">
         <v>3.75</v>
       </c>
-      <c r="H44" t="n">
-        <v>3.7</v>
-      </c>
       <c r="I44" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N44" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="O44" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R44" t="n">
         <v>1.57</v>
@@ -5511,13 +5511,13 @@
         <v>2.25</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W44" t="n">
         <v>2</v>
@@ -5562,7 +5562,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Germany Bundesliga</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -5574,110 +5574,110 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Dinamo Bucureşti</t>
+          <t>Bayern München</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>U Craiova 1948</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.49</v>
+        <v>1.48</v>
       </c>
       <c r="H45" t="n">
-        <v>2.92</v>
+        <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>2.59</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
         <v>1.02</v>
       </c>
       <c r="K45" t="n">
-        <v>8.800000000000001</v>
+        <v>36</v>
       </c>
       <c r="L45" t="n">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="M45" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N45" t="n">
-        <v>2.03</v>
+        <v>1.36</v>
       </c>
       <c r="O45" t="n">
-        <v>1.57</v>
+        <v>3.2</v>
       </c>
       <c r="P45" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R45" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="S45" t="n">
         <v>2.75</v>
       </c>
-      <c r="R45" t="n">
+      <c r="T45" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W45" t="n">
+        <v>3</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y45" t="n">
         <v>1.7</v>
       </c>
-      <c r="S45" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V45" t="n">
+      <c r="Z45" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF45" t="n">
         <v>1.36</v>
       </c>
-      <c r="W45" t="n">
-        <v>1</v>
-      </c>
-      <c r="X45" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>1.85</v>
-      </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
@@ -5689,110 +5689,110 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ruch Chorzów</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.08</v>
+        <v>2.35</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I46" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="J46" t="n">
         <v>1.06</v>
       </c>
       <c r="K46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="L46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T46" t="n">
         <v>1.33</v>
       </c>
-      <c r="M46" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.25</v>
-      </c>
       <c r="U46" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V46" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="W46" t="n">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="X46" t="n">
         <v>0.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.95</v>
+        <v>1.67</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.88</v>
+        <v>1.31</v>
       </c>
       <c r="AA46" t="n">
-        <v>1.83</v>
+        <v>2.98</v>
       </c>
       <c r="AB46" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AC46" t="n">
         <v>8</v>
       </c>
       <c r="AD46" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF46" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AG46" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AH46" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AI46" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
@@ -5804,110 +5804,110 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Hull City</t>
+          <t>KVC Westerlo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Royal Antwerp FC</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.44</v>
+        <v>4.33</v>
       </c>
       <c r="H47" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="I47" t="n">
-        <v>2.68</v>
+        <v>1.78</v>
       </c>
       <c r="J47" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K47" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L47" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="M47" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N47" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="P47" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI47" t="n">
         <v>3</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S47" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W47" t="n">
-        <v>2</v>
-      </c>
-      <c r="X47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>2.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
@@ -5919,110 +5919,110 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>KVC Westerlo</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Royal Antwerp FC</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>1.81</v>
+        <v>2.6</v>
       </c>
       <c r="J48" t="n">
         <v>1.03</v>
       </c>
       <c r="K48" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N48" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="O48" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P48" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="Q48" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="R48" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T48" t="n">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="U48" t="n">
         <v>1.25</v>
       </c>
       <c r="V48" t="n">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X48" t="n">
-        <v>0.67</v>
+        <v>1.71</v>
       </c>
       <c r="Y48" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AE48" t="n">
         <v>1.24</v>
       </c>
-      <c r="Z48" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AF48" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AG48" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AH48" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="AI48" t="n">
-        <v>3</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>Wales Welsh Premier League</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -6034,110 +6034,110 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Salford City</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Notts County</t>
+          <t>Aberystwyth Town</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.68</v>
+        <v>1.91</v>
       </c>
       <c r="H49" t="n">
-        <v>3.45</v>
+        <v>3.52</v>
       </c>
       <c r="I49" t="n">
-        <v>2.33</v>
+        <v>3.51</v>
       </c>
       <c r="J49" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K49" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L49" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="M49" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N49" t="n">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="P49" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="Q49" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="R49" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="S49" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="T49" t="n">
-        <v>1.68</v>
+        <v>1.3</v>
       </c>
       <c r="U49" t="n">
         <v>1.22</v>
       </c>
       <c r="V49" t="n">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
         <v>0.33</v>
       </c>
-      <c r="X49" t="n">
-        <v>1.25</v>
-      </c>
       <c r="Y49" t="n">
-        <v>1.43</v>
+        <v>0.98</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.09</v>
+        <v>0.64</v>
       </c>
       <c r="AA49" t="n">
-        <v>2.52</v>
+        <v>1.62</v>
       </c>
       <c r="AB49" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AG49" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AH49" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
@@ -6149,110 +6149,110 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Hull City</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="H50" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="I50" t="n">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="J50" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K50" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="L50" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M50" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N50" t="n">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="O50" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="P50" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R50" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S50" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U50" t="n">
         <v>1.3</v>
       </c>
-      <c r="U50" t="n">
-        <v>1.25</v>
-      </c>
       <c r="V50" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="W50" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="X50" t="n">
-        <v>1.71</v>
+        <v>0.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AA50" t="n">
         <v>3.35</v>
       </c>
       <c r="AB50" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AC50" t="n">
         <v>8</v>
       </c>
       <c r="AD50" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="AE50" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AF50" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="AG50" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AH50" t="n">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="AI50" t="n">
-        <v>3.08</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Wales Welsh Premier League</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
@@ -6264,110 +6264,110 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Salford City</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Aberystwyth Town</t>
+          <t>Notts County</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.18</v>
+        <v>2.75</v>
       </c>
       <c r="H51" t="n">
-        <v>3.42</v>
+        <v>3.6</v>
       </c>
       <c r="I51" t="n">
-        <v>3.14</v>
+        <v>2.4</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="N51" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="O51" t="n">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="X51" t="n">
-        <v>0.33</v>
+        <v>1.25</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.98</v>
+        <v>1.43</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.64</v>
+        <v>1.09</v>
       </c>
       <c r="AA51" t="n">
-        <v>1.62</v>
+        <v>2.52</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
@@ -6379,110 +6379,110 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Deportivo Alavés</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.84</v>
+        <v>2.81</v>
       </c>
       <c r="H52" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I52" t="n">
-        <v>3.9</v>
+        <v>2.51</v>
       </c>
       <c r="J52" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="K52" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L52" t="n">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="M52" t="n">
-        <v>2.37</v>
+        <v>4.2</v>
       </c>
       <c r="N52" t="n">
-        <v>2.24</v>
+        <v>1.85</v>
       </c>
       <c r="O52" t="n">
-        <v>1.53</v>
+        <v>1.96</v>
       </c>
       <c r="P52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R52" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="S52" t="n">
         <v>2.25</v>
       </c>
-      <c r="R52" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T52" t="n">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="U52" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V52" t="n">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.19</v>
+        <v>1.55</v>
       </c>
       <c r="AA52" t="n">
-        <v>2.72</v>
+        <v>3.65</v>
       </c>
       <c r="AB52" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AC52" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>2.95</v>
+        <v>2.78</v>
       </c>
       <c r="AE52" t="n">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="AF52" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="AG52" t="n">
-        <v>2.12</v>
+        <v>1.44</v>
       </c>
       <c r="AH52" t="n">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="AI52" t="n">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
@@ -6498,106 +6498,106 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Deportivo Alavés</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.41</v>
+        <v>1.92</v>
       </c>
       <c r="H53" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="I53" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J53" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="K53" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L53" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="M53" t="n">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="N53" t="n">
-        <v>1.46</v>
+        <v>2.6</v>
       </c>
       <c r="O53" t="n">
-        <v>2.48</v>
+        <v>1.5</v>
       </c>
       <c r="P53" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="Q53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI53" t="n">
         <v>3.75</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S53" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="V53" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W53" t="n">
-        <v>2</v>
-      </c>
-      <c r="X53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>3.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
@@ -6609,104 +6609,104 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.74</v>
+        <v>1.49</v>
       </c>
       <c r="H54" t="n">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="I54" t="n">
-        <v>2.41</v>
+        <v>5.95</v>
       </c>
       <c r="J54" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K54" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L54" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="M54" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N54" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="O54" t="n">
-        <v>1.92</v>
+        <v>2.45</v>
       </c>
       <c r="P54" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Q54" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="R54" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S54" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T54" t="n">
-        <v>1.45</v>
+        <v>1.12</v>
       </c>
       <c r="U54" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="V54" t="n">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="W54" t="n">
         <v>2</v>
       </c>
       <c r="X54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y54" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="AA54" t="n">
-        <v>3.65</v>
+        <v>4.08</v>
       </c>
       <c r="AB54" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="AC54" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF54" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="AG54" t="n">
-        <v>1.44</v>
+        <v>2.05</v>
       </c>
       <c r="AH54" t="n">
-        <v>1.85</v>
+        <v>2.65</v>
       </c>
       <c r="AI54" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="55">
@@ -6737,13 +6737,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I55" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
         <v>1.07</v>
@@ -6758,10 +6758,10 @@
         <v>3.25</v>
       </c>
       <c r="N55" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="O55" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="P55" t="n">
         <v>1.4</v>
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H56" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="I56" t="n">
-        <v>4.15</v>
+        <v>4.33</v>
       </c>
       <c r="J56" t="n">
         <v>1.11</v>
@@ -6873,10 +6873,10 @@
         <v>2.45</v>
       </c>
       <c r="N56" t="n">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="O56" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P56" t="n">
         <v>1.53</v>
@@ -6936,7 +6936,7 @@
         <v>2.87</v>
       </c>
       <c r="AI56" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="57">
@@ -7082,13 +7082,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H58" t="n">
-        <v>3.05</v>
+        <v>3.28</v>
       </c>
       <c r="I58" t="n">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="H60" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I60" t="n">
         <v>4.75</v>
@@ -7333,10 +7333,10 @@
         <v>2.27</v>
       </c>
       <c r="N60" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O60" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P60" t="n">
         <v>1.59</v>
@@ -7375,16 +7375,16 @@
         <v>3</v>
       </c>
       <c r="AB60" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AC60" t="n">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="AD60" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AE60" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF60" t="n">
         <v>1.28</v>
@@ -7427,13 +7427,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.11</v>
+        <v>2.22</v>
       </c>
       <c r="H61" t="n">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="I61" t="n">
-        <v>3.1</v>
+        <v>3.43</v>
       </c>
       <c r="J61" t="n">
         <v>1.07</v>
@@ -7499,7 +7499,7 @@
         <v>2.2</v>
       </c>
       <c r="AE61" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF61" t="n">
         <v>1.48</v>
@@ -7511,7 +7511,7 @@
         <v>2.47</v>
       </c>
       <c r="AI61" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="62">
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="H62" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I62" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -7563,10 +7563,10 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="O62" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -7605,13 +7605,13 @@
         <v>3.06</v>
       </c>
       <c r="AB62" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AC62" t="n">
         <v>8</v>
       </c>
       <c r="AD62" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AE62" t="n">
         <v>0</v>
@@ -7657,13 +7657,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H63" t="n">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="I63" t="n">
-        <v>3.45</v>
+        <v>3.67</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -7972,6 +7972,236 @@
       </c>
       <c r="AI65" t="n">
         <v>4.1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>28</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K66" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>23</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-09-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -617,7 +617,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Japan J1 League</t>
+          <t>Japan J2 League</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -629,104 +629,104 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Ventforet Kofu</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>Tokyo Verdy</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.88</v>
+        <v>2.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.56</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>2.37</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O2" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AE2" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1.32</v>
-      </c>
       <c r="AF2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AG2" t="n">
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="3">
@@ -748,106 +748,106 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.39</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>4.93</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
         <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.33</v>
       </c>
-      <c r="O3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.2</v>
       </c>
-      <c r="Q3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.14</v>
-      </c>
       <c r="U3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z3" t="n">
         <v>1.17</v>
       </c>
-      <c r="V3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1.12</v>
-      </c>
       <c r="AA3" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.4</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Japan J2 League</t>
+          <t>Japan J1 League</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -859,104 +859,104 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ventforet Kofu</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tokyo Verdy</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V4" t="n">
         <v>2.75</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="W4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI4" t="n">
         <v>2.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>3.9</v>
       </c>
     </row>
     <row r="5">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.93</v>
+        <v>4.8</v>
       </c>
       <c r="J5" t="n">
         <v>1.05</v>
@@ -1011,7 +1011,7 @@
         <v>2.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P5" t="n">
         <v>1.4</v>
@@ -1035,10 +1035,10 @@
         <v>2.03</v>
       </c>
       <c r="W5" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="Y5" t="n">
         <v>1.61</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="H6" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -1123,10 +1123,10 @@
         <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="O6" t="n">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="P6" t="n">
         <v>1.22</v>
@@ -1150,10 +1150,10 @@
         <v>3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="X6" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
         <v>1.81</v>
@@ -1220,7 +1220,7 @@
         <v>1.22</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="I7" t="n">
         <v>12</v>
@@ -1238,10 +1238,10 @@
         <v>4.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="O7" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="P7" t="n">
         <v>1.24</v>
@@ -1265,10 +1265,10 @@
         <v>4</v>
       </c>
       <c r="W7" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="X7" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="Y7" t="n">
         <v>1.75</v>
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
         <v>1.02</v>
@@ -1353,10 +1353,10 @@
         <v>4.2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P8" t="n">
         <v>1.32</v>
@@ -1380,10 +1380,10 @@
         <v>1.95</v>
       </c>
       <c r="W8" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="X8" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="Y8" t="n">
         <v>1.55</v>
@@ -1450,7 +1450,7 @@
         <v>1.22</v>
       </c>
       <c r="H9" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="I9" t="n">
         <v>11</v>
@@ -1468,10 +1468,10 @@
         <v>5.8</v>
       </c>
       <c r="N9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P9" t="n">
         <v>1.2</v>
@@ -1495,10 +1495,10 @@
         <v>3.75</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="Y9" t="n">
         <v>1.72</v>
@@ -1562,13 +1562,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="H10" t="n">
-        <v>4.29</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.05</v>
@@ -1583,10 +1583,10 @@
         <v>3.6</v>
       </c>
       <c r="N10" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="O10" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1610,10 +1610,10 @@
         <v>2.85</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="X10" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y10" t="n">
         <v>1.44</v>
@@ -1677,13 +1677,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
         <v>1.01</v>
@@ -1701,7 +1701,7 @@
         <v>1.8</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="P11" t="n">
         <v>1.36</v>
@@ -1792,13 +1792,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
         <v>1.02</v>
@@ -1813,10 +1813,10 @@
         <v>3.32</v>
       </c>
       <c r="N12" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="O12" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P12" t="n">
         <v>1.39</v>
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
         <v>1.06</v>
@@ -1931,7 +1931,7 @@
         <v>2.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P13" t="n">
         <v>1.48</v>
@@ -2022,10 +2022,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
@@ -2046,7 +2046,7 @@
         <v>1.75</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P14" t="n">
         <v>1.33</v>
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
         <v>1.06</v>
@@ -2158,10 +2158,10 @@
         <v>3.3</v>
       </c>
       <c r="N15" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="H16" t="n">
-        <v>3.56</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>4.88</v>
+        <v>4.8</v>
       </c>
       <c r="J16" t="n">
         <v>1.01</v>
@@ -2273,10 +2273,10 @@
         <v>3.4</v>
       </c>
       <c r="N16" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O16" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="P16" t="n">
         <v>1.38</v>
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
         <v>1.04</v>
@@ -2388,10 +2388,10 @@
         <v>2.84</v>
       </c>
       <c r="N17" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2588,40 +2588,40 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lafnitz</t>
+          <t>Liefering</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Horn</t>
+          <t>SV Stripfing Weiden</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.87</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
-        <v>4.01</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.52</v>
+        <v>2.62</v>
       </c>
       <c r="J19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N19" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O19" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P19" t="n">
         <v>1.3</v>
@@ -2636,52 +2636,52 @@
         <v>2.38</v>
       </c>
       <c r="T19" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="U19" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="V19" t="n">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="W19" t="n">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.59</v>
+        <v>1.16</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AA19" t="n">
-        <v>3.02</v>
+        <v>2.65</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="20">
@@ -2703,22 +2703,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Dornbirn</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>Admira</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.47</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.39</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="J20" t="n">
         <v>1.04</v>
@@ -2727,16 +2727,16 @@
         <v>10</v>
       </c>
       <c r="L20" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N20" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="O20" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
         <v>1.36</v>
@@ -2745,58 +2745,58 @@
         <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="U20" t="n">
         <v>1.22</v>
       </c>
       <c r="V20" t="n">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.31</v>
+        <v>2.98</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2818,40 +2818,40 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Liefering</t>
+          <t>St. Pölten</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SV Stripfing Weiden</t>
+          <t>First Vienna</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K21" t="n">
+        <v>11</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O21" t="n">
         <v>2.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K21" t="n">
-        <v>10</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2.15</v>
       </c>
       <c r="P21" t="n">
         <v>1.3</v>
@@ -2860,58 +2860,58 @@
         <v>3.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="T21" t="n">
-        <v>1.39</v>
+        <v>1.09</v>
       </c>
       <c r="U21" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="V21" t="n">
-        <v>1.54</v>
+        <v>2.6</v>
       </c>
       <c r="W21" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.65</v>
+        <v>2.98</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AE21" t="n">
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="22">
@@ -2933,22 +2933,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Dornbirn</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Admira</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="J22" t="n">
         <v>1.04</v>
@@ -2957,16 +2957,16 @@
         <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
         <v>1.7</v>
       </c>
       <c r="O22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P22" t="n">
         <v>1.36</v>
@@ -2975,58 +2975,58 @@
         <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="U22" t="n">
         <v>1.22</v>
       </c>
       <c r="V22" t="n">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="W22" t="n">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.65</v>
+        <v>1.24</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.98</v>
+        <v>2.31</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23">
@@ -3048,22 +3048,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>St. Pölten</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>First Vienna</t>
+          <t>Horn</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.66</v>
+        <v>2.05</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>1.03</v>
@@ -3078,10 +3078,10 @@
         <v>4.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O23" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P23" t="n">
         <v>1.3</v>
@@ -3090,58 +3090,58 @@
         <v>3.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AG23" t="n">
         <v>1.91</v>
       </c>
-      <c r="T23" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AH23" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AI23" t="n">
-        <v>2.4</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="24">
@@ -3163,46 +3163,46 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Nürnberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Greuther Fürth</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="J24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="M24" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="O24" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="P24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R24" t="n">
         <v>1.62</v>
@@ -3211,37 +3211,37 @@
         <v>2.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="U24" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="V24" t="n">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.64</v>
+        <v>3.12</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>2.1</v>
+        <v>2.89</v>
       </c>
       <c r="AE24" t="n">
         <v>1.2</v>
@@ -3278,46 +3278,46 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Nürnberg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Wehen Wiesbaden</t>
+          <t>Greuther Fürth</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="H25" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="J25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L25" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="M25" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N25" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="O25" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="P25" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R25" t="n">
         <v>1.62</v>
@@ -3326,37 +3326,37 @@
         <v>2.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="U25" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="V25" t="n">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="W25" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>3.12</v>
+        <v>2.64</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.89</v>
+        <v>2.1</v>
       </c>
       <c r="AE25" t="n">
         <v>1.2</v>
@@ -3405,10 +3405,10 @@
         <v>2.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J26" t="n">
         <v>1.03</v>
@@ -3423,7 +3423,7 @@
         <v>4.33</v>
       </c>
       <c r="N26" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O26" t="n">
         <v>2.25</v>
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
@@ -3538,10 +3538,10 @@
         <v>3.7</v>
       </c>
       <c r="N27" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O27" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="P27" t="n">
         <v>1.36</v>
@@ -3632,13 +3632,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J28" t="n">
         <v>1.01</v>
@@ -3653,10 +3653,10 @@
         <v>3.3</v>
       </c>
       <c r="N28" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O28" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
         <v>1.33</v>
@@ -3747,13 +3747,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="J29" t="n">
         <v>1.02</v>
@@ -3768,10 +3768,10 @@
         <v>4.5</v>
       </c>
       <c r="N29" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="O29" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="P29" t="n">
         <v>1.27</v>
@@ -3934,19 +3934,19 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="31">
@@ -4040,28 +4040,28 @@
         <v>2.88</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="32">
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -4113,10 +4113,10 @@
         <v>3.72</v>
       </c>
       <c r="N32" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="O32" t="n">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="P32" t="n">
         <v>1.34</v>
@@ -4155,13 +4155,13 @@
         <v>3.49</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AE32" t="n">
         <v>0</v>
@@ -4207,13 +4207,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="H33" t="n">
-        <v>8.720000000000001</v>
+        <v>3.35</v>
       </c>
       <c r="I33" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="J33" t="n">
         <v>1.02</v>
@@ -4228,10 +4228,10 @@
         <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="O33" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="P33" t="n">
         <v>1.33</v>
@@ -4270,13 +4270,13 @@
         <v>2.23</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
@@ -4615,28 +4615,28 @@
         <v>3.18</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="37">
@@ -4658,100 +4658,100 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>MVV</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.75</v>
+        <v>2.11</v>
       </c>
       <c r="H37" t="n">
-        <v>3.65</v>
+        <v>3.57</v>
       </c>
       <c r="I37" t="n">
-        <v>2.21</v>
+        <v>2.98</v>
       </c>
       <c r="J37" t="n">
         <v>1.02</v>
       </c>
       <c r="K37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L37" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="M37" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N37" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="O37" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="P37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Z37" t="n">
         <v>1.28</v>
       </c>
-      <c r="Q37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W37" t="n">
-        <v>3</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1.23</v>
-      </c>
       <c r="AA37" t="n">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="38">
@@ -4773,100 +4773,100 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MVV</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.11</v>
+        <v>1.82</v>
       </c>
       <c r="H38" t="n">
-        <v>3.57</v>
+        <v>3.65</v>
       </c>
       <c r="I38" t="n">
-        <v>2.98</v>
+        <v>3.77</v>
       </c>
       <c r="J38" t="n">
         <v>1.02</v>
       </c>
       <c r="K38" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L38" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N38" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="O38" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="P38" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="R38" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="S38" t="n">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="T38" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="U38" t="n">
         <v>1.2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.72</v>
+        <v>2.05</v>
       </c>
       <c r="W38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X38" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.34</v>
+        <v>1.92</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AA38" t="n">
-        <v>2.62</v>
+        <v>3.33</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="39">
@@ -4888,28 +4888,28 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>VVV</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.82</v>
+        <v>2.55</v>
       </c>
       <c r="H39" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I39" t="n">
-        <v>3.77</v>
+        <v>2.34</v>
       </c>
       <c r="J39" t="n">
         <v>1.02</v>
       </c>
       <c r="K39" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L39" t="n">
         <v>1.2</v>
@@ -4924,64 +4924,64 @@
         <v>2.2</v>
       </c>
       <c r="P39" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="R39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="T39" t="n">
         <v>1.6</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.22</v>
       </c>
       <c r="U39" t="n">
         <v>1.2</v>
       </c>
       <c r="V39" t="n">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="W39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AA39" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="40">
@@ -5003,100 +5003,100 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="H40" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I40" t="n">
-        <v>2.34</v>
+        <v>2.21</v>
       </c>
       <c r="J40" t="n">
         <v>1.02</v>
       </c>
       <c r="K40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L40" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M40" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W40" t="n">
+        <v>3</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y40" t="n">
         <v>1.6</v>
       </c>
-      <c r="O40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S40" t="n">
+      <c r="Z40" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH40" t="n">
         <v>2.45</v>
       </c>
-      <c r="T40" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W40" t="n">
-        <v>2</v>
-      </c>
-      <c r="X40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>1.88</v>
-      </c>
       <c r="AI40" t="n">
-        <v>2.29</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="41">
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="H41" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="I41" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O41" t="n">
         <v>2.2</v>
@@ -5242,13 +5242,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="H42" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J42" t="n">
         <v>1.06</v>
@@ -5266,7 +5266,7 @@
         <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P42" t="n">
         <v>1.4</v>
@@ -5357,13 +5357,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
         <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="J43" t="n">
         <v>1.02</v>
@@ -5378,10 +5378,10 @@
         <v>3.5</v>
       </c>
       <c r="N43" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O43" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="P43" t="n">
         <v>1.4</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="H44" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="J44" t="n">
         <v>1.04</v>
@@ -5496,7 +5496,7 @@
         <v>1.6</v>
       </c>
       <c r="O44" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P44" t="n">
         <v>1.3</v>
@@ -5505,10 +5505,10 @@
         <v>3.4</v>
       </c>
       <c r="R44" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S44" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T44" t="n">
         <v>1.8</v>
@@ -5535,28 +5535,28 @@
         <v>3.17</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="45">
@@ -5587,13 +5587,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J45" t="n">
         <v>1.02</v>
@@ -5611,7 +5611,7 @@
         <v>1.36</v>
       </c>
       <c r="O45" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P45" t="n">
         <v>1.18</v>
@@ -5702,13 +5702,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
         <v>1.06</v>
@@ -5723,10 +5723,10 @@
         <v>3.6</v>
       </c>
       <c r="N46" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="O46" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="P46" t="n">
         <v>1.36</v>
@@ -5792,7 +5792,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Wales Welsh Premier League</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
@@ -5808,106 +5808,106 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KVC Westerlo</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Royal Antwerp FC</t>
+          <t>Aberystwyth Town</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.33</v>
+        <v>1.85</v>
       </c>
       <c r="H47" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>1.78</v>
+        <v>3.55</v>
       </c>
       <c r="J47" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K47" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L47" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U47" t="n">
         <v>1.22</v>
       </c>
-      <c r="M47" t="n">
-        <v>4</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O47" t="n">
-        <v>2</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R47" t="n">
+      <c r="V47" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AG47" t="n">
         <v>1.75</v>
-      </c>
-      <c r="S47" t="n">
-        <v>2</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>1.7</v>
       </c>
       <c r="AH47" t="n">
         <v>2.2</v>
       </c>
       <c r="AI47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
@@ -5919,110 +5919,110 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Hull City</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H48" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J48" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K48" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="L48" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M48" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N48" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="O48" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="P48" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R48" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S48" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U48" t="n">
         <v>1.3</v>
       </c>
-      <c r="U48" t="n">
-        <v>1.25</v>
-      </c>
       <c r="V48" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="W48" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="X48" t="n">
-        <v>1.71</v>
+        <v>0.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AA48" t="n">
         <v>3.35</v>
       </c>
       <c r="AB48" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AC48" t="n">
         <v>8</v>
       </c>
       <c r="AD48" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="AE48" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AF48" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="AG48" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AH48" t="n">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="AI48" t="n">
-        <v>3.08</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Wales Welsh Premier League</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -6034,110 +6034,110 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Aberystwyth Town</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N49" t="n">
         <v>1.91</v>
       </c>
-      <c r="H49" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K49" t="n">
-        <v>9</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M49" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1.85</v>
-      </c>
       <c r="O49" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P49" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R49" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S49" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T49" t="n">
         <v>1.3</v>
       </c>
       <c r="U49" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V49" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X49" t="n">
-        <v>0.33</v>
+        <v>1.71</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.98</v>
+        <v>1.79</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.64</v>
+        <v>1.56</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.62</v>
+        <v>3.35</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
@@ -6149,110 +6149,110 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hull City</t>
+          <t>Salford City</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Notts County</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.56</v>
+        <v>2.87</v>
       </c>
       <c r="H50" t="n">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>2.76</v>
+        <v>2.35</v>
       </c>
       <c r="J50" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K50" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L50" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="M50" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N50" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O50" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="P50" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R50" t="n">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="S50" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="T50" t="n">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="U50" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="V50" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="W50" t="n">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="X50" t="n">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.82</v>
+        <v>1.43</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.53</v>
+        <v>1.09</v>
       </c>
       <c r="AA50" t="n">
-        <v>3.35</v>
+        <v>2.52</v>
       </c>
       <c r="AB50" t="n">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="AC50" t="n">
         <v>8</v>
       </c>
       <c r="AD50" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="AE50" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="AF50" t="n">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="AG50" t="n">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="AH50" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="AI50" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
@@ -6264,104 +6264,104 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Salford City</t>
+          <t>KVC Westerlo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Notts County</t>
+          <t>Royal Antwerp FC</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="H51" t="n">
         <v>3.6</v>
       </c>
       <c r="I51" t="n">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="J51" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K51" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L51" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M51" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N51" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O51" t="n">
         <v>2.05</v>
       </c>
       <c r="P51" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="Q51" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD51" t="n">
         <v>1.52</v>
       </c>
-      <c r="S51" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="X51" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>1.69</v>
-      </c>
       <c r="AE51" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AF51" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AG51" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AH51" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AI51" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -6392,13 +6392,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="H52" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I52" t="n">
-        <v>2.51</v>
+        <v>2.4</v>
       </c>
       <c r="J52" t="n">
         <v>1.03</v>
@@ -6413,10 +6413,10 @@
         <v>4.2</v>
       </c>
       <c r="N52" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O52" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="P52" t="n">
         <v>1.33</v>
@@ -6507,13 +6507,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H53" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J53" t="n">
         <v>1.11</v>
@@ -6522,13 +6522,13 @@
         <v>7</v>
       </c>
       <c r="L53" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M53" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N53" t="n">
         <v>2.55</v>
-      </c>
-      <c r="N53" t="n">
-        <v>2.6</v>
       </c>
       <c r="O53" t="n">
         <v>1.5</v>
@@ -6622,13 +6622,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="H54" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I54" t="n">
-        <v>5.95</v>
+        <v>6.5</v>
       </c>
       <c r="J54" t="n">
         <v>1.01</v>
@@ -6643,10 +6643,10 @@
         <v>5.5</v>
       </c>
       <c r="N54" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O54" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="P54" t="n">
         <v>1.25</v>
@@ -6737,13 +6737,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="H55" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J55" t="n">
         <v>1.07</v>
@@ -6758,10 +6758,10 @@
         <v>3.25</v>
       </c>
       <c r="N55" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O55" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P55" t="n">
         <v>1.4</v>
@@ -6800,28 +6800,28 @@
         <v>3.1</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AG55" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AI55" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="56">
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="H56" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I56" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J56" t="n">
         <v>1.11</v>
@@ -6873,10 +6873,10 @@
         <v>2.45</v>
       </c>
       <c r="N56" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="O56" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P56" t="n">
         <v>1.53</v>
@@ -7082,13 +7082,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H58" t="n">
-        <v>3.28</v>
+        <v>3.05</v>
       </c>
       <c r="I58" t="n">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H60" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
         <v>4.75</v>
@@ -7327,16 +7327,16 @@
         <v>6.5</v>
       </c>
       <c r="L60" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M60" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="N60" t="n">
         <v>2.75</v>
       </c>
       <c r="O60" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P60" t="n">
         <v>1.59</v>
@@ -7427,13 +7427,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="I61" t="n">
-        <v>3.43</v>
+        <v>3.2</v>
       </c>
       <c r="J61" t="n">
         <v>1.07</v>
@@ -7542,52 +7542,52 @@
         </is>
       </c>
       <c r="G62" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K62" t="n">
+        <v>9</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R62" t="n">
         <v>1.95</v>
       </c>
-      <c r="H62" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" t="n">
-        <v>2</v>
-      </c>
       <c r="S62" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W62" t="n">
         <v>1.2</v>
@@ -7614,19 +7614,19 @@
         <v>2.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF62" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG62" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AH62" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AI62" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="63">
@@ -7657,13 +7657,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H63" t="n">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="I63" t="n">
-        <v>3.67</v>
+        <v>3.45</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -7977,7 +7977,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
@@ -7989,110 +7989,110 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.29</v>
+        <v>1.33</v>
       </c>
       <c r="H66" t="n">
-        <v>3.13</v>
+        <v>4.25</v>
       </c>
       <c r="I66" t="n">
-        <v>1.98</v>
+        <v>9</v>
       </c>
       <c r="J66" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K66" t="n">
+        <v>12</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W66" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE66" t="n">
         <v>1.11</v>
       </c>
-      <c r="K66" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L66" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="N66" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P66" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S66" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T66" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U66" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V66" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="X66" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>1.18</v>
-      </c>
       <c r="AF66" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AG66" t="n">
         <v>1.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="AI66" t="n">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
@@ -8104,104 +8104,104 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.38</v>
+        <v>3.6</v>
       </c>
       <c r="H67" t="n">
-        <v>4.75</v>
+        <v>2.94</v>
       </c>
       <c r="I67" t="n">
-        <v>8</v>
+        <v>2.07</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N67" t="n">
-        <v>2</v>
+        <v>2.58</v>
       </c>
       <c r="O67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD67" t="n">
         <v>1.8</v>
       </c>
-      <c r="P67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S67" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T67" t="n">
-        <v>0</v>
-      </c>
-      <c r="U67" t="n">
-        <v>0</v>
-      </c>
-      <c r="V67" t="n">
-        <v>0</v>
-      </c>
-      <c r="W67" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X67" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>5.1</v>
-      </c>
       <c r="AE67" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF67" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG67" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH67" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI67" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
   </sheetData>
